--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531382\Videos\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459926E6-AB72-4201-BE14-219883BB730B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD481AC6-1962-4364-83C0-76E60AB77E90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{380793A7-BFC7-4BE3-8F72-6DA14EB4AA13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="4830" xr2:uid="{B178E5F7-BF0C-4C1F-83CE-BB03890D8B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,148 +30,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>EmailKey</t>
-  </si>
-  <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>s531519@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Yashwanth Reddy Bommineni</t>
-  </si>
-  <si>
-    <t>s530742@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveen Kumar Chandaluri</t>
-  </si>
-  <si>
-    <t>s531495@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Chaithanya Cherukuru</t>
-  </si>
-  <si>
-    <t>s531367@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sai Sirisha Devineni</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>shivani Reddy Dodla</t>
   </si>
   <si>
     <t>s531496@nwmissouri.edu</t>
   </si>
   <si>
-    <t>Shivani Reddy Dodla</t>
-  </si>
-  <si>
-    <t>s531369@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Girish Guntuku</t>
-  </si>
-  <si>
-    <t>s531499@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Saicharan Gurudu</t>
-  </si>
-  <si>
-    <t>s531500@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sravya Kancharla</t>
-  </si>
-  <si>
-    <t>s531372@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Anurag Kumar</t>
-  </si>
-  <si>
-    <t>s530473@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Ujjawal Kumar</t>
-  </si>
-  <si>
-    <t>s531439@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Dattu Bhargav Medarametla</t>
-  </si>
-  <si>
-    <t>s531503@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Santosh Sekhar Muchkur Bogarajula</t>
-  </si>
-  <si>
-    <t>s531373@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveenkumar Nuggu</t>
-  </si>
-  <si>
-    <t>s531507@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vijay Kumar Tupakula</t>
-  </si>
-  <si>
-    <t>s531508@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Satya Sai Ram Vankina</t>
+    <t>Srimai Reddy Yanala</t>
+  </si>
+  <si>
+    <t>s531384@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>s531383@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Vyshnavi Reddy Yanala</t>
   </si>
   <si>
     <t>s531382@nwmissouri.edu</t>
   </si>
   <si>
-    <t>Sreelekha Vijaya</t>
-  </si>
-  <si>
-    <t>mwoolery@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Matthew Woolery</t>
-  </si>
-  <si>
-    <t>s531383@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vyshnavi Yalamareddy</t>
-  </si>
-  <si>
-    <t>s531384@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Srimai Reddy Yanala</t>
-  </si>
-  <si>
-    <t>hoot@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Charles Hoot</t>
-  </si>
-  <si>
-    <t>dcase@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Denise Case</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,13 +100,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,37 +421,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B4D73-A7A5-4BD8-95E9-C43A1B0899D3}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728B83-F265-4309-9FEB-F653CFF4F8F9}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -550,7 +459,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -558,151 +467,20 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{6B4A6910-DCE7-4AC0-8B0A-AA5B5F266F06}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{7531004F-70E9-4333-A2A7-E78D5BCD8B6B}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{FCE74DAB-92F3-4D30-84A6-3D40B59D88CA}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{07D3488E-FD63-4EC9-A64D-6214F287623F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sravya\Spring2019\Codeword-GDPII\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD481AC6-1962-4364-83C0-76E60AB77E90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD2BE2-78AA-4281-84F4-9C8BD1DB8111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="4830" xr2:uid="{B178E5F7-BF0C-4C1F-83CE-BB03890D8B00}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>shivani Reddy Dodla</t>
   </si>
@@ -56,10 +56,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>s@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Sravya</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Email@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728B83-F265-4309-9FEB-F653CFF4F8F9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,11 +441,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,6 +478,14 @@
       </c>
       <c r="B5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -480,6 +494,8 @@
     <hyperlink ref="A2" r:id="rId2" xr:uid="{7531004F-70E9-4333-A2A7-E78D5BCD8B6B}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{FCE74DAB-92F3-4D30-84A6-3D40B59D88CA}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{07D3488E-FD63-4EC9-A64D-6214F287623F}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{180CAB8D-80D4-45DB-BCE5-798A6AEE6C0B}"/>
+    <hyperlink ref="A1" r:id="rId6" xr:uid="{37CF9AB5-FFF2-4F72-85C0-56570981A703}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sravya\Spring2019\Codeword-GDPII\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP2\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD2BE2-78AA-4281-84F4-9C8BD1DB8111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D617DD6-1548-4C52-9A17-A3D9ADA4204D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="4830" xr2:uid="{B178E5F7-BF0C-4C1F-83CE-BB03890D8B00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{380793A7-BFC7-4BE3-8F72-6DA14EB4AA13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,42 +30,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>shivani Reddy Dodla</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>EmailKey</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>s531519@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Yashwanth Reddy Bommineni</t>
+  </si>
+  <si>
+    <t>s530742@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Naveen Kumar Chandaluri</t>
+  </si>
+  <si>
+    <t>s531495@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Chaithanya Cherukuru</t>
+  </si>
+  <si>
+    <t>s531367@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Sai Sirisha Devineni</t>
   </si>
   <si>
     <t>s531496@nwmissouri.edu</t>
   </si>
   <si>
+    <t>Shivani Reddy Dodla</t>
+  </si>
+  <si>
+    <t>s531369@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Girish Guntuku</t>
+  </si>
+  <si>
+    <t>Sravya Kancharla</t>
+  </si>
+  <si>
+    <t>s531372@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Anurag Kumar</t>
+  </si>
+  <si>
+    <t>s530473@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Ujjawal Kumar</t>
+  </si>
+  <si>
+    <t>s531439@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Dattu Bhargav Medarametla</t>
+  </si>
+  <si>
+    <t>s531503@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Santosh Sekhar Muchkur Bogarajula</t>
+  </si>
+  <si>
+    <t>s531373@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Naveenkumar Nuggu</t>
+  </si>
+  <si>
+    <t>s531507@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Vijay Kumar Tupakula</t>
+  </si>
+  <si>
+    <t>s531508@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Satya Sai Ram Vankina</t>
+  </si>
+  <si>
+    <t>s531382@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Sreelekha Vijaya</t>
+  </si>
+  <si>
+    <t>mwoolery@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Matthew Woolery</t>
+  </si>
+  <si>
+    <t>s531383@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Vyshnavi Yalamareddy</t>
+  </si>
+  <si>
+    <t>s531384@nwmissouri.edu</t>
+  </si>
+  <si>
     <t>Srimai Reddy Yanala</t>
   </si>
   <si>
-    <t>s531384@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>s531383@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vyshnavi Reddy Yanala</t>
-  </si>
-  <si>
-    <t>s531382@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>hoot@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Charles Hoot</t>
+  </si>
+  <si>
+    <t>dcase@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Denise Case</t>
   </si>
   <si>
     <t>s@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sravya</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Email@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
@@ -427,37 +517,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728B83-F265-4309-9FEB-F653CFF4F8F9}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B4D73-A7A5-4BD8-95E9-C43A1B0899D3}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -465,7 +555,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -473,30 +563,146 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{6B4A6910-DCE7-4AC0-8B0A-AA5B5F266F06}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{7531004F-70E9-4333-A2A7-E78D5BCD8B6B}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{FCE74DAB-92F3-4D30-84A6-3D40B59D88CA}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{07D3488E-FD63-4EC9-A64D-6214F287623F}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{180CAB8D-80D4-45DB-BCE5-798A6AEE6C0B}"/>
-    <hyperlink ref="A1" r:id="rId6" xr:uid="{37CF9AB5-FFF2-4F72-85C0-56570981A703}"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{63A9E782-62F0-4B9D-80F4-B7E14BCF3833}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -1,161 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP2\Codeword-GDPII\Documentation\Sample Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D617DD6-1548-4C52-9A17-A3D9ADA4204D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244AC018-A8E2-4666-A3FC-82F8D7494A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{380793A7-BFC7-4BE3-8F72-6DA14EB4AA13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="6">
   <si>
-    <t>EmailKey</t>
+    <t>S530742@nwmissouri.edu</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Naveen</t>
   </si>
   <si>
-    <t>s531519@nwmissouri.edu</t>
+    <t>SID</t>
   </si>
   <si>
-    <t>Yashwanth Reddy Bommineni</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>s530742@nwmissouri.edu</t>
+    <t>Sreemai</t>
   </si>
   <si>
-    <t>Naveen Kumar Chandaluri</t>
-  </si>
-  <si>
-    <t>s531495@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Chaithanya Cherukuru</t>
-  </si>
-  <si>
-    <t>s531367@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sai Sirisha Devineni</t>
-  </si>
-  <si>
-    <t>s531496@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Shivani Reddy Dodla</t>
-  </si>
-  <si>
-    <t>s531369@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Girish Guntuku</t>
-  </si>
-  <si>
-    <t>Sravya Kancharla</t>
-  </si>
-  <si>
-    <t>s531372@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Anurag Kumar</t>
-  </si>
-  <si>
-    <t>s530473@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Ujjawal Kumar</t>
-  </si>
-  <si>
-    <t>s531439@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Dattu Bhargav Medarametla</t>
-  </si>
-  <si>
-    <t>s531503@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Santosh Sekhar Muchkur Bogarajula</t>
-  </si>
-  <si>
-    <t>s531373@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveenkumar Nuggu</t>
-  </si>
-  <si>
-    <t>s531507@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vijay Kumar Tupakula</t>
-  </si>
-  <si>
-    <t>s531508@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Satya Sai Ram Vankina</t>
-  </si>
-  <si>
-    <t>s531382@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sreelekha Vijaya</t>
-  </si>
-  <si>
-    <t>mwoolery@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Matthew Woolery</t>
-  </si>
-  <si>
-    <t>s531383@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vyshnavi Yalamareddy</t>
-  </si>
-  <si>
-    <t>s531384@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Srimai Reddy Yanala</t>
-  </si>
-  <si>
-    <t>hoot@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Charles Hoot</t>
-  </si>
-  <si>
-    <t>dcase@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Denise Case</t>
-  </si>
-  <si>
-    <t>s@nwmissouri.edu</t>
+    <t>Srimai</t>
   </si>
 </sst>
 </file>
@@ -238,7 +120,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -250,7 +132,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -297,23 +179,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,23 +214,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,192 +365,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B4D73-A7A5-4BD8-95E9-C43A1B0899D3}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
+      <c r="A6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
+      <c r="A9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
+      <c r="A21" t="s">
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{63A9E782-62F0-4B9D-80F4-B7E14BCF3833}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{61616BC8-D815-43F9-8940-F69885CB471A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{FC3E095B-31DA-4238-8E19-B6D0B9346AC0}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{26F8B314-6744-4060-BB44-CE2FD935346D}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{952FD22E-16EF-4B5B-B3F9-534992D30FD7}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{0026FEE4-12FE-4349-AF55-06F9804E3882}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{8076B14C-3E52-4E8A-8802-54ECB62D0023}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{F3DD060C-B551-4F79-8761-394082CD79DB}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{E50FF623-6049-4B58-BF18-9C8231994935}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP2\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531382\Videos\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D617DD6-1548-4C52-9A17-A3D9ADA4204D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{459926E6-AB72-4201-BE14-219883BB730B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{380793A7-BFC7-4BE3-8F72-6DA14EB4AA13}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>EmailKey</t>
   </si>
@@ -74,6 +74,15 @@
     <t>Girish Guntuku</t>
   </si>
   <si>
+    <t>s531499@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Saicharan Gurudu</t>
+  </si>
+  <si>
+    <t>s531500@nwmissouri.edu</t>
+  </si>
+  <si>
     <t>Sravya Kancharla</t>
   </si>
   <si>
@@ -153,27 +162,16 @@
   </si>
   <si>
     <t>Denise Case</t>
-  </si>
-  <si>
-    <t>s@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,16 +194,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B4D73-A7A5-4BD8-95E9-C43A1B0899D3}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,121 +583,126 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{63A9E782-62F0-4B9D-80F4-B7E14BCF3833}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531382\Videos\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP2\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459926E6-AB72-4201-BE14-219883BB730B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D617DD6-1548-4C52-9A17-A3D9ADA4204D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{380793A7-BFC7-4BE3-8F72-6DA14EB4AA13}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>EmailKey</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Girish Guntuku</t>
   </si>
   <si>
-    <t>s531499@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Saicharan Gurudu</t>
-  </si>
-  <si>
-    <t>s531500@nwmissouri.edu</t>
-  </si>
-  <si>
     <t>Sravya Kancharla</t>
   </si>
   <si>
@@ -162,16 +153,27 @@
   </si>
   <si>
     <t>Denise Case</t>
+  </si>
+  <si>
+    <t>s@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,13 +196,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B4D73-A7A5-4BD8-95E9-C43A1B0899D3}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,126 +588,121 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
+      <c r="A21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{63A9E782-62F0-4B9D-80F4-B7E14BCF3833}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530742\Desktop\CI\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7367F85-0A97-47C2-A0B2-BC850921B020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{D0B14EB6-2760-4452-AF9A-AAB23E3746F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,138 +30,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
-  <si>
-    <t>EmailKey</t>
-  </si>
-  <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>s531519@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Yashwanth Reddy Bommineni</t>
-  </si>
-  <si>
-    <t>s530742@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveen Kumar Chandaluri</t>
-  </si>
-  <si>
-    <t>s531495@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Chaithanya Cherukuru</t>
-  </si>
-  <si>
-    <t>s531367@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sai Sirisha Devineni</t>
-  </si>
-  <si>
-    <t>s531496@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Shivani Reddy Dodla</t>
-  </si>
-  <si>
-    <t>s531369@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Girish Guntuku</t>
-  </si>
-  <si>
-    <t>Sravya Kancharla</t>
-  </si>
-  <si>
-    <t>s531372@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Anurag Kumar</t>
-  </si>
-  <si>
-    <t>s530473@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Ujjawal Kumar</t>
-  </si>
-  <si>
-    <t>s531439@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Dattu Bhargav Medarametla</t>
-  </si>
-  <si>
-    <t>s531503@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Santosh Sekhar Muchkur Bogarajula</t>
-  </si>
-  <si>
-    <t>s531373@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveenkumar Nuggu</t>
-  </si>
-  <si>
-    <t>s531507@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vijay Kumar Tupakula</t>
-  </si>
-  <si>
-    <t>s531508@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Satya Sai Ram Vankina</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t>s531384@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>Srimai Reddy Yanala</t>
+  </si>
+  <si>
+    <t>srimai Reddy yanala</t>
+  </si>
+  <si>
+    <t>s531383@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyshnavi </t>
   </si>
   <si>
     <t>s531382@nwmissouri.edu</t>
   </si>
   <si>
-    <t>Sreelekha Vijaya</t>
-  </si>
-  <si>
-    <t>mwoolery@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Matthew Woolery</t>
-  </si>
-  <si>
-    <t>s531383@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vyshnavi Yalamareddy</t>
-  </si>
-  <si>
-    <t>s531384@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Srimai Reddy Yanala</t>
-  </si>
-  <si>
-    <t>hoot@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Charles Hoot</t>
-  </si>
-  <si>
-    <t>dcase@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Denise Case</t>
-  </si>
-  <si>
-    <t>s@nwmissouri.edu</t>
+    <t>sreelekha</t>
+  </si>
+  <si>
+    <t>sravya</t>
+  </si>
+  <si>
+    <t>s531396@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>s531381@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,17 +427,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA91B052-542C-40C1-9209-2EC74EC968F8}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,182 +445,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C806D9CF-CCD7-4DD7-95A5-E5FB44614F5F}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{188D883D-0130-4DA3-A64C-9E03D829670A}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A8EBE8FB-AF83-478C-A81D-B48E2FF3C9E4}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{5C72418C-1D3A-4AC3-9820-DD984C522946}"/>
+    <hyperlink ref="A3" r:id="rId5" display="s531384@nwmissouri.edu" xr:uid="{FA3FDC5D-B8B7-4341-908F-6B6B24823FA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\gdp2\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7367F85-0A97-47C2-A0B2-BC850921B020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21248B99-6418-4F26-9ABA-41692D618E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{D0B14EB6-2760-4452-AF9A-AAB23E3746F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,42 +30,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">email </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>EmailKey</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>s531519@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Yashwanth Reddy Bommineni</t>
+  </si>
+  <si>
+    <t>s530742@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Naveen Kumar Chandaluri</t>
+  </si>
+  <si>
+    <t>s531495@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Chaithanya Cherukuru</t>
+  </si>
+  <si>
+    <t>s531367@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Sai Sirisha Devineni</t>
+  </si>
+  <si>
+    <t>s531496@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Shivani Reddy Dodla</t>
+  </si>
+  <si>
+    <t>s531369@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Girish Guntuku</t>
+  </si>
+  <si>
+    <t>Sravya Kancharla</t>
+  </si>
+  <si>
+    <t>s531372@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Anurag Kumar</t>
+  </si>
+  <si>
+    <t>s530473@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Ujjawal Kumar</t>
+  </si>
+  <si>
+    <t>s531439@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Dattu Bhargav Medarametla</t>
+  </si>
+  <si>
+    <t>s531503@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Santosh Sekhar Muchkur Bogarajula</t>
+  </si>
+  <si>
+    <t>s531373@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Naveenkumar Nuggu</t>
+  </si>
+  <si>
+    <t>s531507@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Vijay Kumar Tupakula</t>
+  </si>
+  <si>
+    <t>s531508@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Satya Sai Ram Vankina</t>
+  </si>
+  <si>
+    <t>s531382@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Sreelekha Vijaya</t>
+  </si>
+  <si>
+    <t>mwoolery@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Matthew Woolery</t>
+  </si>
+  <si>
+    <t>s531383@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Vyshnavi Yalamareddy</t>
   </si>
   <si>
     <t>s531384@nwmissouri.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Username </t>
-  </si>
-  <si>
     <t>Srimai Reddy Yanala</t>
   </si>
   <si>
-    <t>srimai Reddy yanala</t>
-  </si>
-  <si>
-    <t>s531383@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vyshnavi </t>
-  </si>
-  <si>
-    <t>s531382@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>sreelekha</t>
-  </si>
-  <si>
-    <t>sravya</t>
-  </si>
-  <si>
-    <t>s531396@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>s531381@nwmissouri.edu</t>
+    <t>hoot@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Charles Hoot</t>
+  </si>
+  <si>
+    <t>dcase@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Denise Case</t>
+  </si>
+  <si>
+    <t>s@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
@@ -427,17 +517,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA91B052-542C-40C1-9209-2EC74EC968F8}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,57 +535,174 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C806D9CF-CCD7-4DD7-95A5-E5FB44614F5F}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{188D883D-0130-4DA3-A64C-9E03D829670A}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{A8EBE8FB-AF83-478C-A81D-B48E2FF3C9E4}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{5C72418C-1D3A-4AC3-9820-DD984C522946}"/>
-    <hyperlink ref="A3" r:id="rId5" display="s531384@nwmissouri.edu" xr:uid="{FA3FDC5D-B8B7-4341-908F-6B6B24823FA6}"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\gdp2\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531382\Videos\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21248B99-6418-4F26-9ABA-41692D618E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{459926E6-AB72-4201-BE14-219883BB730B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{380793A7-BFC7-4BE3-8F72-6DA14EB4AA13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>EmailKey</t>
   </si>
@@ -74,6 +74,15 @@
     <t>Girish Guntuku</t>
   </si>
   <si>
+    <t>s531499@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t>Saicharan Gurudu</t>
+  </si>
+  <si>
+    <t>s531500@nwmissouri.edu</t>
+  </si>
+  <si>
     <t>Sravya Kancharla</t>
   </si>
   <si>
@@ -153,27 +162,16 @@
   </si>
   <si>
     <t>Denise Case</t>
-  </si>
-  <si>
-    <t>s@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,16 +194,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B4D73-A7A5-4BD8-95E9-C43A1B0899D3}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,121 +583,126 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531382\Videos\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\gdp2\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459926E6-AB72-4201-BE14-219883BB730B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21248B99-6418-4F26-9ABA-41692D618E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{380793A7-BFC7-4BE3-8F72-6DA14EB4AA13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>EmailKey</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Girish Guntuku</t>
   </si>
   <si>
-    <t>s531499@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Saicharan Gurudu</t>
-  </si>
-  <si>
-    <t>s531500@nwmissouri.edu</t>
-  </si>
-  <si>
     <t>Sravya Kancharla</t>
   </si>
   <si>
@@ -162,16 +153,27 @@
   </si>
   <si>
     <t>Denise Case</t>
+  </si>
+  <si>
+    <t>s@nwmissouri.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,13 +196,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B4D73-A7A5-4BD8-95E9-C43A1B0899D3}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,126 +588,121 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
+      <c r="A21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -1,167 +1,306 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\gdp2\Codeword-GDPII\Documentation\Sample Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21248B99-6418-4F26-9ABA-41692D618E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>EmailKey</t>
-  </si>
-  <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>s531519@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Yashwanth Reddy Bommineni</t>
-  </si>
-  <si>
-    <t>s530742@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveen Kumar Chandaluri</t>
-  </si>
-  <si>
-    <t>s531495@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Chaithanya Cherukuru</t>
-  </si>
-  <si>
-    <t>s531367@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sai Sirisha Devineni</t>
-  </si>
-  <si>
-    <t>s531496@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Shivani Reddy Dodla</t>
-  </si>
-  <si>
-    <t>s531369@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Girish Guntuku</t>
-  </si>
-  <si>
-    <t>Sravya Kancharla</t>
-  </si>
-  <si>
-    <t>s531372@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Anurag Kumar</t>
-  </si>
-  <si>
-    <t>s530473@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Ujjawal Kumar</t>
-  </si>
-  <si>
-    <t>s531439@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Dattu Bhargav Medarametla</t>
-  </si>
-  <si>
-    <t>s531503@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Santosh Sekhar Muchkur Bogarajula</t>
-  </si>
-  <si>
-    <t>s531373@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveenkumar Nuggu</t>
-  </si>
-  <si>
-    <t>s531507@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vijay Kumar Tupakula</t>
-  </si>
-  <si>
-    <t>s531508@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Satya Sai Ram Vankina</t>
-  </si>
-  <si>
-    <t>s531382@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Sreelekha Vijaya</t>
-  </si>
-  <si>
-    <t>mwoolery@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Matthew Woolery</t>
-  </si>
-  <si>
-    <t>s531383@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Vyshnavi Yalamareddy</t>
-  </si>
-  <si>
-    <t>s531384@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Srimai Reddy Yanala</t>
-  </si>
-  <si>
-    <t>hoot@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Charles Hoot</t>
-  </si>
-  <si>
-    <t>dcase@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Denise Case</t>
-  </si>
-  <si>
-    <t>s@nwmissouri.edu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>AFRICA</t>
+  </si>
+  <si>
+    <t>ALMOND</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>BANKING</t>
+  </si>
+  <si>
+    <t>BOUNCE</t>
+  </si>
+  <si>
+    <t>BIGGER</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>CANCER</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>DESKS</t>
+  </si>
+  <si>
+    <t>DUMPED</t>
+  </si>
+  <si>
+    <t>BLACKDOG</t>
+  </si>
+  <si>
+    <t>ECHOES</t>
+  </si>
+  <si>
+    <t>ELVIS</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FOXTROT</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>FELINE</t>
+  </si>
+  <si>
+    <t>GULFES</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>GLOBE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>HANGER</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>ICEBURG</t>
+  </si>
+  <si>
+    <t>INKSPOT</t>
+  </si>
+  <si>
+    <t>IMPULSE</t>
+  </si>
+  <si>
+    <t>IGORANCE</t>
+  </si>
+  <si>
+    <t>KILOMETERS</t>
+  </si>
+  <si>
+    <t>KANGAROO</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>LEMONS</t>
+  </si>
+  <si>
+    <t>LINCON</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>LINNER</t>
+  </si>
+  <si>
+    <t>MONKEY</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>NATIVE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>OLDLIFE</t>
+  </si>
+  <si>
+    <t>OLIOCOOK</t>
+  </si>
+  <si>
+    <t>PICTURES</t>
+  </si>
+  <si>
+    <t>PENCIL</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>PUMPKIN</t>
+  </si>
+  <si>
+    <t>QUICKLY</t>
+  </si>
+  <si>
+    <t>QUASAR</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>ROMANCE</t>
+  </si>
+  <si>
+    <t>REDWOOD</t>
+  </si>
+  <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
+    <t>RETIREMENT</t>
+  </si>
+  <si>
+    <t>STEVE</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>SINGER</t>
+  </si>
+  <si>
+    <t>TWILIGHT</t>
+  </si>
+  <si>
+    <t>TITANIC</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>TALENT</t>
+  </si>
+  <si>
+    <t>UNIFORM</t>
+  </si>
+  <si>
+    <t>ULTIMATE</t>
+  </si>
+  <si>
+    <t>VICTORY</t>
+  </si>
+  <si>
+    <t>VAGRANT</t>
+  </si>
+  <si>
+    <t>VELVET</t>
+  </si>
+  <si>
+    <t>VOICE</t>
+  </si>
+  <si>
+    <t>WHISKEY</t>
+  </si>
+  <si>
+    <t>WITCH</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>XEROXED</t>
+  </si>
+  <si>
+    <t>YANKEE</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>ZIPPED</t>
+  </si>
+  <si>
+    <t>ZINGER</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>ZEBRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,12 +310,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,16 +333,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -238,7 +375,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -250,7 +387,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -297,23 +434,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,23 +469,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,192 +620,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="15" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="18" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="20" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="22" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="24" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="26" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="27" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="28" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="29" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="30" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="31" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="32" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="33" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="34" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="35" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="36" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="38" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="39" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="40" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="41" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="42" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
+    </row>
+    <row r="43" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP II\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\gdp2\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0BD67B-D938-4BBF-A3C6-C4889418610F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21248B99-6418-4F26-9ABA-41692D618E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,6 +56,9 @@
     <t>Chaithanya Cherukuru</t>
   </si>
   <si>
+    <t>s531367@nwmissouri.edu</t>
+  </si>
+  <si>
     <t>Sai Sirisha Devineni</t>
   </si>
   <si>
@@ -153,9 +156,6 @@
   </si>
   <si>
     <t>s@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>s531367asdfnwmissouri.edu</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,138 +564,138 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
